--- a/20_営業/07_会計/TE030/T_TE030_CFO_019_A16_01_電子帳簿AP仕入請求の情報系システム連携_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_019_A16_01_電子帳簿AP仕入請求の情報系システム連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ2)" sheetId="10" r:id="rId7"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ3) " sheetId="11" r:id="rId8"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ4)" sheetId="12" r:id="rId9"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId10"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId11"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ5)" sheetId="13" r:id="rId10"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId11"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -31,11 +32,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="215">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1173,17 +1175,158 @@
   <si>
     <t>Issue化</t>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>シナリオ5</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(業務日付取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(処理開始時刻取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(猶予日数取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A16_01を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A16_01(電子帳簿AP仕入請求の情報系システム連携)</t>
+    <rPh sb="15" eb="19">
+      <t>デンシチョウボ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ジョウホウケイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力パラメータ：
+無し</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(前回処理日取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(初回データ対象日時取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A16_01から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>T_TE030_CFO_019_A16_01_電子帳簿AP仕入請求の情報系システム連携_OIC統合_エビデンス(シナリオ5).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1364,6 +1507,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2037,7 +2195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2392,6 +2550,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2437,6 +2610,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -5624,6 +5798,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30510480"/>
+          <a:ext cx="6939915" cy="2606040"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33211770"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29691330"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -5968,7 +6867,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -5978,7 +6877,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5986,7 +6885,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5995,7 +6894,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -6004,67 +6903,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="129" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="130" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="130" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="130" t="s">
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -6072,11 +6971,11 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -6084,23 +6983,23 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>73</v>
       </c>
@@ -6108,25 +7007,25 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -6138,7 +7037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -6166,12 +7065,383 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="117" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="117"/>
+      <c r="D13" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="I13" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="I14" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="38"/>
+      <c r="B15" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="117"/>
+      <c r="D15" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A16"/>
+      <c r="B16" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="I16" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="72"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="77"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="126" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G17">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -6181,7 +7451,7 @@
     <col min="9" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -6191,51 +7461,51 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="134" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="139" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="138" t="s">
+      <c r="E5" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="138" t="s">
+      <c r="G5" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="137" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="135"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="140"/>
       <c r="C6" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="133"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="142"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="138"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
         <v>71</v>
       </c>
@@ -6246,7 +7516,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="67"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="68"/>
       <c r="C8" s="42"/>
       <c r="D8" s="44"/>
@@ -6255,7 +7525,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="68"/>
       <c r="C9" s="46"/>
       <c r="D9" s="42"/>
@@ -6264,7 +7534,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="68"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -6273,7 +7543,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="68"/>
       <c r="C11" s="42"/>
       <c r="D11" s="46"/>
@@ -6282,7 +7552,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="68"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -6291,7 +7561,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="68"/>
       <c r="C13" s="42"/>
       <c r="D13" s="54"/>
@@ -6300,7 +7570,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="68"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -6309,7 +7579,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="68"/>
       <c r="C15" s="42"/>
       <c r="D15" s="54"/>
@@ -6318,7 +7588,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="68"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -6327,7 +7597,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="68"/>
       <c r="C17" s="42"/>
       <c r="D17" s="54"/>
@@ -6336,7 +7606,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="68"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -6345,7 +7615,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="68"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -6354,7 +7624,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -6363,7 +7633,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -6372,7 +7642,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -6381,7 +7651,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="66"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -6390,7 +7660,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -6420,14 +7690,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -6438,7 +7708,7 @@
     <col min="8" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -6447,25 +7717,25 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="110" t="s">
         <v>60</v>
@@ -6486,7 +7756,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -6495,7 +7765,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -6504,23 +7774,23 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="110" t="s">
         <v>60</v>
@@ -6541,7 +7811,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -6550,7 +7820,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -6559,7 +7829,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -6568,7 +7838,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -6592,20 +7862,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -6616,29 +7886,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
@@ -6656,7 +7926,7 @@
       <c r="H7" s="101"/>
       <c r="I7" s="102"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="91">
         <v>44936</v>
       </c>
@@ -6674,7 +7944,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="92"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="91">
         <v>44984</v>
       </c>
@@ -6692,27 +7962,45 @@
       <c r="H9" s="23"/>
       <c r="I9" s="92"/>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="129">
+        <v>45561</v>
+      </c>
+      <c r="C10" s="130" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="132" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="92"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6733,13 +8021,13 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -6754,156 +8042,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>81</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -6921,13 +8209,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -6936,7 +8225,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -6944,7 +8233,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
         <v>72</v>
       </c>
@@ -6954,7 +8243,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -6962,7 +8251,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -6972,7 +8261,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -6980,7 +8269,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
@@ -6992,7 +8281,7 @@
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
+    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -7004,7 +8293,7 @@
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1" ht="22.5">
+    <row r="8" spans="1:6" s="85" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -7016,7 +8305,7 @@
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
+    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -7028,7 +8317,7 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
+    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -7040,15 +8329,19 @@
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1">
+    <row r="11" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="87"/>
+      <c r="D11" s="121" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>193</v>
+      </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
+    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -7056,7 +8349,7 @@
       <c r="E12" s="87"/>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="13" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -7064,7 +8357,7 @@
       <c r="E13" s="87"/>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="14" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -7072,7 +8365,7 @@
       <c r="E14" s="87"/>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
@@ -7080,7 +8373,7 @@
       <c r="E15" s="87"/>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -7088,7 +8381,7 @@
       <c r="E16" s="87"/>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
+    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="88"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -7096,7 +8389,7 @@
       <c r="E17" s="90"/>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
@@ -7104,7 +8397,7 @@
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
     </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="88"/>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
@@ -7119,9 +8412,10 @@
     <hyperlink ref="D8" location="'テスト仕様_テスト結果(テスト・シナリオ2)'!A1" display="シナリオ2"/>
     <hyperlink ref="D10" location="'テスト仕様_テスト結果(テスト・シナリオ4)'!A1" display="シナリオ4"/>
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
+    <hyperlink ref="D11" location="'テスト仕様_テスト結果(テスト・シナリオ5)'!A1" display="シナリオ5"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;8&amp;F&amp;R&amp;8XXX構築プロジェクト
 &lt;YYYY/MM/DD&gt;</oddHeader>
@@ -7138,7 +8432,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -7146,51 +8440,51 @@
     <col min="4" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="6" customHeight="1">
+    <row r="1" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="127" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="131" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="131"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="136"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="128"/>
       <c r="C8" s="128"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B9" s="34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" thickBot="1">
+    <row r="10" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" thickBot="1">
+    <row r="11" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="114" t="s">
         <v>77</v>
       </c>
@@ -7198,7 +8492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="116" customFormat="1" ht="21.75" thickBot="1">
+    <row r="12" spans="1:4" s="116" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="120" t="s">
         <v>98</v>
       </c>
@@ -7206,21 +8500,21 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="116" customFormat="1">
+    <row r="13" spans="1:4" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="33"/>
       <c r="C13" s="27"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" thickBot="1">
+    <row r="15" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" thickBot="1">
+    <row r="16" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="114" t="s">
         <v>77</v>
       </c>
@@ -7228,7 +8522,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="32.25" thickBot="1">
+    <row r="17" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="120" t="s">
         <v>101</v>
       </c>
@@ -7236,7 +8530,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="32.25" thickBot="1">
+    <row r="18" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="120" t="s">
         <v>101</v>
       </c>
@@ -7244,7 +8538,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="32.25" thickBot="1">
+    <row r="19" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="120" t="s">
         <v>101</v>
       </c>
@@ -7252,7 +8546,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="32.25" thickBot="1">
+    <row r="20" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="120" t="s">
         <v>101</v>
       </c>
@@ -7260,7 +8554,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="32.25" thickBot="1">
+    <row r="21" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="120" t="s">
         <v>101</v>
       </c>
@@ -7268,7 +8562,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="32.25" thickBot="1">
+    <row r="22" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="120" t="s">
         <v>101</v>
       </c>
@@ -7276,15 +8570,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:3" ht="14.25" thickBot="1">
+    <row r="24" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="14.25" thickBot="1">
+    <row r="25" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="114" t="s">
         <v>77</v>
       </c>
@@ -7292,7 +8586,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="32.25" thickBot="1">
+    <row r="26" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B26" s="120" t="s">
         <v>98</v>
       </c>
@@ -7300,7 +8594,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="32.25" thickBot="1">
+    <row r="27" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="120" t="s">
         <v>101</v>
       </c>
@@ -7308,7 +8602,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="32.25" thickBot="1">
+    <row r="28" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="120" t="s">
         <v>101</v>
       </c>
@@ -7316,7 +8610,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="32.25" thickBot="1">
+    <row r="29" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="120" t="s">
         <v>101</v>
       </c>
@@ -7324,7 +8618,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="32.25" thickBot="1">
+    <row r="30" spans="2:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="120" t="s">
         <v>98</v>
       </c>
@@ -7332,27 +8626,27 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="33"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="34" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="33"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
     </row>
@@ -7380,7 +8674,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -7393,7 +8687,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7404,35 +8698,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -7458,7 +8752,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>108</v>
@@ -7473,7 +8767,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="105">
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>110</v>
@@ -7500,7 +8794,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -7521,7 +8815,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -7542,7 +8836,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -7552,7 +8846,7 @@
       <c r="H15" s="46"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="117"/>
       <c r="D16" s="46"/>
@@ -7562,7 +8856,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -7572,7 +8866,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -7582,7 +8876,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -7592,7 +8886,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -7602,7 +8896,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -7613,7 +8907,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -7624,7 +8918,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -7634,7 +8928,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -7645,7 +8939,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -7656,7 +8950,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -7666,7 +8960,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -7676,7 +8970,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -7686,7 +8980,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -7696,7 +8990,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -7706,7 +9000,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -7716,7 +9010,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="117"/>
       <c r="D32" s="46"/>
@@ -7726,7 +9020,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -7736,7 +9030,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -7746,7 +9040,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -7756,7 +9050,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="68"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -7766,7 +9060,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1">
+    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="72"/>
       <c r="C37" s="47"/>
       <c r="D37" s="47"/>
@@ -7776,7 +9070,7 @@
       <c r="H37" s="47"/>
       <c r="I37" s="77"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -7786,7 +9080,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -7796,7 +9090,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="6" customHeight="1">
+    <row r="40" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="28"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
@@ -7806,7 +9100,7 @@
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>49</v>
       </c>
@@ -7816,7 +9110,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -7826,7 +9120,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="126" t="s">
         <v>86</v>
       </c>
@@ -7838,7 +9132,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -7848,7 +9142,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -7858,7 +9152,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -7868,7 +9162,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -7886,7 +9180,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7904,7 +9198,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -7917,7 +9211,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -7928,35 +9222,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -7982,7 +9276,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>113</v>
@@ -7997,7 +9291,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="105">
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>115</v>
@@ -8024,7 +9318,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -8045,7 +9339,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A14" s="38"/>
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
@@ -8066,7 +9360,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B15" s="64" t="s">
         <v>118</v>
       </c>
@@ -8080,7 +9374,7 @@
       <c r="H15" s="46"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9" ht="105">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="B16" s="64" t="s">
         <v>120</v>
       </c>
@@ -8106,7 +9400,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21">
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B17" s="64" t="s">
         <v>123</v>
       </c>
@@ -8120,7 +9414,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9" ht="94.5">
+    <row r="18" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B18" s="64" t="s">
         <v>125</v>
       </c>
@@ -8146,7 +9440,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21">
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B19" s="64" t="s">
         <v>128</v>
       </c>
@@ -8160,7 +9454,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9" ht="84">
+    <row r="20" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B20" s="64" t="s">
         <v>130</v>
       </c>
@@ -8186,7 +9480,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21">
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B21" s="64" t="s">
         <v>133</v>
       </c>
@@ -8200,7 +9494,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9" ht="84">
+    <row r="22" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B22" s="64" t="s">
         <v>135</v>
       </c>
@@ -8226,7 +9520,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21">
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B23" s="64" t="s">
         <v>137</v>
       </c>
@@ -8240,7 +9534,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9" ht="84">
+    <row r="24" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64" t="s">
         <v>139</v>
@@ -8267,7 +9561,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
@@ -8278,7 +9572,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -8288,7 +9582,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="38"/>
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
@@ -8299,7 +9593,7 @@
       <c r="H27" s="57"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="38"/>
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
@@ -8310,7 +9604,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -8320,7 +9614,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -8330,7 +9624,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -8340,7 +9634,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -8350,7 +9644,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -8360,7 +9654,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -8370,7 +9664,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="64"/>
       <c r="C35" s="117"/>
       <c r="D35" s="46"/>
@@ -8380,7 +9674,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="64"/>
       <c r="C36" s="46"/>
       <c r="D36" s="46"/>
@@ -8390,7 +9684,7 @@
       <c r="H36" s="46"/>
       <c r="I36" s="76"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="68"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -8400,7 +9694,7 @@
       <c r="H37" s="46"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="68"/>
       <c r="C38" s="46"/>
       <c r="D38" s="46"/>
@@ -8410,7 +9704,7 @@
       <c r="H38" s="46"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="68"/>
       <c r="C39" s="46"/>
       <c r="D39" s="46"/>
@@ -8420,7 +9714,7 @@
       <c r="H39" s="46"/>
       <c r="I39" s="76"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1">
+    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="72"/>
       <c r="C40" s="47"/>
       <c r="D40" s="47"/>
@@ -8430,7 +9724,7 @@
       <c r="H40" s="47"/>
       <c r="I40" s="77"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -8440,7 +9734,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -8450,7 +9744,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9" ht="6" customHeight="1">
+    <row r="43" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
@@ -8460,7 +9754,7 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
     </row>
-    <row r="44" spans="1:9" ht="14.25">
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>49</v>
       </c>
@@ -8470,7 +9764,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -8480,7 +9774,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -8490,7 +9784,7 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
@@ -8500,7 +9794,7 @@
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="35"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
@@ -8510,7 +9804,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
@@ -8520,7 +9814,7 @@
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" s="35"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
@@ -8538,7 +9832,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -8556,7 +9850,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -8569,7 +9863,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -8580,35 +9874,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -8634,7 +9928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>157</v>
@@ -8649,7 +9943,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>153</v>
       </c>
@@ -8675,7 +9969,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -8695,7 +9989,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -8715,7 +10009,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -8735,7 +10029,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B16" s="64" t="s">
         <v>159</v>
       </c>
@@ -8749,7 +10043,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9" ht="84">
+    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B17" s="64" t="s">
         <v>160</v>
       </c>
@@ -8775,7 +10069,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21">
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64" t="s">
         <v>141</v>
@@ -8790,7 +10084,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9" ht="84">
+    <row r="19" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A19" s="38"/>
       <c r="B19" s="64" t="s">
         <v>162</v>
@@ -8817,7 +10111,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21">
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B20" s="64" t="s">
         <v>156</v>
       </c>
@@ -8831,7 +10125,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9" ht="84">
+    <row r="21" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64" t="s">
         <v>144</v>
@@ -8858,7 +10152,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21">
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="64" t="s">
         <v>165</v>
@@ -8873,7 +10167,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9" ht="84">
+    <row r="23" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B23" s="64" t="s">
         <v>166</v>
       </c>
@@ -8899,7 +10193,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -8909,7 +10203,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -8919,7 +10213,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -8929,7 +10223,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -8939,7 +10233,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -8949,7 +10243,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="117"/>
       <c r="D29" s="46"/>
@@ -8959,7 +10253,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -8969,7 +10263,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -8979,7 +10273,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -8989,7 +10283,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -8999,7 +10293,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -9009,7 +10303,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -9019,7 +10313,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -9029,7 +10323,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1">
+    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -9039,7 +10333,7 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>49</v>
       </c>
@@ -9049,7 +10343,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -9059,7 +10353,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -9069,7 +10363,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -9079,7 +10373,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -9089,7 +10383,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -9099,7 +10393,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -9117,7 +10411,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9135,7 +10429,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -9148,7 +10442,7 @@
     <col min="10" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -9159,35 +10453,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>41</v>
       </c>
@@ -9213,7 +10507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="123" t="s">
         <v>146</v>
@@ -9228,7 +10522,7 @@
       <c r="H11" s="118"/>
       <c r="I11" s="125"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="123" t="s">
         <v>148</v>
       </c>
@@ -9254,7 +10548,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="123"/>
       <c r="C13" s="124"/>
       <c r="D13" s="119"/>
@@ -9274,7 +10568,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="123"/>
       <c r="C14" s="46"/>
       <c r="D14" s="119"/>
@@ -9294,7 +10588,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="123"/>
       <c r="C15" s="124"/>
       <c r="D15" s="119"/>
@@ -9314,7 +10608,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="123"/>
       <c r="C16" s="46"/>
       <c r="D16" s="119"/>
@@ -9324,7 +10618,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="123"/>
       <c r="C17" s="124"/>
       <c r="D17" s="119"/>
@@ -9334,7 +10628,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="123"/>
       <c r="C18" s="46"/>
       <c r="D18" s="119"/>
@@ -9344,7 +10638,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="123"/>
       <c r="C19" s="46"/>
       <c r="D19" s="119"/>
@@ -9354,7 +10648,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="123"/>
       <c r="C20" s="46"/>
@@ -9365,7 +10659,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="123"/>
       <c r="C21" s="46"/>
@@ -9376,7 +10670,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="123"/>
       <c r="C22" s="46"/>
       <c r="D22" s="119"/>
@@ -9386,7 +10680,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="123"/>
       <c r="C23" s="46"/>
@@ -9397,7 +10691,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="123"/>
       <c r="C24" s="46"/>
@@ -9408,7 +10702,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="123"/>
       <c r="C25" s="46"/>
       <c r="D25" s="119"/>
@@ -9418,7 +10712,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="123"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -9428,7 +10722,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -9438,7 +10732,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -9448,7 +10742,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -9458,7 +10752,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -9468,7 +10762,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="64"/>
       <c r="C31" s="117"/>
       <c r="D31" s="46"/>
@@ -9478,7 +10772,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -9488,7 +10782,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -9498,7 +10792,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -9508,7 +10802,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="68"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
@@ -9518,7 +10812,7 @@
       <c r="H35" s="46"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1">
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="72"/>
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
@@ -9528,7 +10822,7 @@
       <c r="H36" s="47"/>
       <c r="I36" s="77"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -9538,7 +10832,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -9548,7 +10842,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" ht="6" customHeight="1">
+    <row r="39" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="28"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
@@ -9558,7 +10852,7 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>49</v>
       </c>
@@ -9568,7 +10862,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -9578,7 +10872,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -9588,7 +10882,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -9598,7 +10892,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -9608,7 +10902,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -9618,7 +10912,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -9636,7 +10930,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
